--- a/biology/Médecine/Cécilia,_médecin_de_campagne/Cécilia,_médecin_de_campagne.xlsx
+++ b/biology/Médecine/Cécilia,_médecin_de_campagne/Cécilia,_médecin_de_campagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cilia,_m%C3%A9decin_de_campagne</t>
+          <t>Cécilia,_médecin_de_campagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cécilia, médecin de campagne est une série télévisée française en 13 épisodes de 26 minutes, tournés en noir et blanc, créée par Gérard Sire, et diffusée entre le 9 avril 1966 et le 9 juillet 1966 sur la première chaîne de l'ORTF.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cilia,_m%C3%A9decin_de_campagne</t>
+          <t>Cécilia,_médecin_de_campagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécilia Baudouin est une jeune généraliste qui vient s'installer au village de Tourlezane. Dans ce milieu rural, c'est le guérisseur, Tabouriech, qui a la charge de la santé des villageois. La jeune femme va devoir faire ses preuves et gagner la confiance des gens.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cilia,_m%C3%A9decin_de_campagne</t>
+          <t>Cécilia,_médecin_de_campagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Scénario : Gérard Sire
 Réalisation : André Michel
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9cilia,_m%C3%A9decin_de_campagne</t>
+          <t>Cécilia,_médecin_de_campagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nicole Berger : Cécilia Baudouin
 Charles Blavette : Cahuzac, le maire
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9cilia,_m%C3%A9decin_de_campagne</t>
+          <t>Cécilia,_médecin_de_campagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +649,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'enfant blessé
 L'ami invisible
@@ -655,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%A9cilia,_m%C3%A9decin_de_campagne</t>
+          <t>Cécilia,_médecin_de_campagne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,9 +693,11 @@
           <t>DVD</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'intégrale de la série est sortie chez LCJ Éditions et Productions[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intégrale de la série est sortie chez LCJ Éditions et Productions.
 </t>
         </is>
       </c>
